--- a/2023_D4TRII_daftar_mahasiswa.xlsx
+++ b/2023_D4TRII_daftar_mahasiswa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACLAB\Documents\Python Scripts\Nilai Mahasiswa 2023 GANJIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\My Python Project\match-googleclassroom-grade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2937E4F-AB83-4D77-803C-67234C23386E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86910400-15F9-4CEA-B979-86F867B7C9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="112">
   <si>
     <t>Nama</t>
   </si>
@@ -325,6 +325,48 @@
   </si>
   <si>
     <t>tetymardianabawamenewi@gmail.com</t>
+  </si>
+  <si>
+    <t>BENIFATI ZEBUA</t>
+  </si>
+  <si>
+    <t>benfazebua@gmail.com</t>
+  </si>
+  <si>
+    <t>ARLIUS PUTRA TAFONAO</t>
+  </si>
+  <si>
+    <t>arliustafonao@gmail.com</t>
+  </si>
+  <si>
+    <t>FEBERTUS LAIA</t>
+  </si>
+  <si>
+    <t>febertus05@gmail.com</t>
+  </si>
+  <si>
+    <t>RISWANDA AULIA SITORUS</t>
+  </si>
+  <si>
+    <t>riswandaaulina@gmail.com</t>
+  </si>
+  <si>
+    <t>RONI WILLI SAPUTRA</t>
+  </si>
+  <si>
+    <t>roniwili466@gmail.com</t>
+  </si>
+  <si>
+    <t>DARMAYANTI</t>
+  </si>
+  <si>
+    <t>daratumorang06@gmail.com</t>
+  </si>
+  <si>
+    <t>GEMMA SITOHANG</t>
+  </si>
+  <si>
+    <t>gemmasitohang@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -369,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,6 +420,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,10 +760,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E991"/>
+  <dimension ref="A1:E998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -778,7 +821,7 @@
     </row>
     <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A52" si="0">IF(C3=C4,A3,A3+1)</f>
+        <f t="shared" ref="A4:A59" si="0">IF(C3=C4,A3,A3+1)</f>
         <v>3</v>
       </c>
       <c r="B4">
@@ -812,13 +855,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2023240007</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
+        <v>2023240005</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -827,43 +870,43 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2023240008</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
+        <v>2023240006</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>2023240008</v>
+        <v>2023240007</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>2023240009</v>
+        <v>2023240008</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -872,13 +915,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2023240010</v>
+        <v>2023240008</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -887,13 +930,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2023240013</v>
+        <v>2023240009</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -902,13 +945,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2023240016</v>
+        <v>2023240010</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -917,55 +960,58 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2023240017</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
+        <v>2023240012</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2023240013</v>
+      </c>
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>2023240017</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2023240016</v>
+      </c>
+      <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>2023240018</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2023240017</v>
+      </c>
+      <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>2023240019</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
+      <c r="D16" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -974,13 +1020,13 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>2023240020</v>
+        <v>2023240017</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -989,13 +1035,13 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>2023240021</v>
+        <v>2023240018</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1004,13 +1050,10 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>2023240022</v>
+        <v>2023240019</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1019,13 +1062,13 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>2023240023</v>
+        <v>2023240020</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1034,13 +1077,13 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>2023240024</v>
+        <v>2023240021</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1049,13 +1092,13 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>2023240025</v>
+        <v>2023240022</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1064,10 +1107,13 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>2023240027</v>
+        <v>2023240023</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1076,13 +1122,13 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>2023240029</v>
+        <v>2023240024</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1091,13 +1137,13 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>2023240031</v>
+        <v>2023240025</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1106,13 +1152,10 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>2023240032</v>
+        <v>2023240027</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1121,13 +1164,13 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>2023240033</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
+        <v>2023240028</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1136,13 +1179,13 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>2023240034</v>
+        <v>2023240029</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1151,13 +1194,13 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <v>2023240035</v>
-      </c>
-      <c r="C29" t="s">
-        <v>28</v>
+        <v>2023240030</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1166,13 +1209,13 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>2023240038</v>
+        <v>2023240031</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1181,13 +1224,13 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>2023240039</v>
+        <v>2023240032</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1196,10 +1239,13 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <v>2023240041</v>
+        <v>2023240033</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1208,13 +1254,13 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>2023240042</v>
+        <v>2023240034</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1223,223 +1269,220 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <v>2023240044</v>
+        <v>2023240035</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35">
-        <v>2023240044</v>
-      </c>
-      <c r="C35" t="s">
-        <v>33</v>
+        <v>2023240036</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36">
-        <v>2023240045</v>
+        <v>2023240038</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37">
-        <v>2023240046</v>
+        <v>2023240039</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38">
-        <v>2023240047</v>
-      </c>
-      <c r="C38" t="s">
-        <v>36</v>
+        <v>2023240040</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39">
-        <v>2023240048</v>
+        <v>2023240041</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40">
-        <v>2023240049</v>
+        <v>2023240042</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41">
-        <v>2023240050</v>
+        <v>2023240044</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B42">
-        <v>2023240050</v>
+        <v>2023240044</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B43">
-        <v>2023240051</v>
+        <v>2023240045</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B44">
-        <v>2023240052</v>
+        <v>2023240046</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B45">
-        <v>2023240053</v>
+        <v>2023240047</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="D45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B46">
-        <v>2023240054</v>
+        <v>2023240048</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47">
-        <v>2023240055</v>
+        <v>2023240049</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48">
-        <v>2023240057</v>
+        <v>2023240050</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1448,13 +1491,13 @@
         <v>44</v>
       </c>
       <c r="B49">
-        <v>2023240058</v>
+        <v>2023240050</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="D49" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1463,13 +1506,13 @@
         <v>45</v>
       </c>
       <c r="B50">
-        <v>2023240059</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>94</v>
+        <v>2023240051</v>
+      </c>
+      <c r="C50" t="s">
+        <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1478,10 +1521,13 @@
         <v>46</v>
       </c>
       <c r="B51">
-        <v>2023240060</v>
+        <v>2023240052</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>75</v>
+      </c>
+      <c r="D51" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1490,22 +1536,117 @@
         <v>47</v>
       </c>
       <c r="B52">
+        <v>2023240053</v>
+      </c>
+      <c r="C52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B53">
+        <v>2023240054</v>
+      </c>
+      <c r="C53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B54">
+        <v>2023240055</v>
+      </c>
+      <c r="C54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B55">
+        <v>2023240057</v>
+      </c>
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B56">
+        <v>2023240058</v>
+      </c>
+      <c r="C56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B57">
+        <v>2023240059</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B58">
+        <v>2023240060</v>
+      </c>
+      <c r="C58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B59">
         <v>2023240061</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C59" t="s">
         <v>82</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D59" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -1576,13 +1717,13 @@
     <row r="127" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="128" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="129" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="131" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="132" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="133" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="134" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="135" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="136" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="138" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="139" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="140" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -2437,45 +2578,52 @@
     <row r="989" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="990" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="991" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B43:C150">
-    <cfRule type="duplicateValues" dxfId="11" priority="24"/>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B21 B2:C19">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C17">
+    <cfRule type="duplicateValues" dxfId="9" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C94">
+    <cfRule type="duplicateValues" dxfId="8" priority="157"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:C48 B22:B38">
+    <cfRule type="duplicateValues" dxfId="7" priority="154"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:C49">
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:C157">
+    <cfRule type="duplicateValues" dxfId="5" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="10" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2 H22:H40">
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="greaterThan">
+  <conditionalFormatting sqref="C2:C38">
+    <cfRule type="duplicateValues" dxfId="3" priority="142"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D17">
+    <cfRule type="duplicateValues" dxfId="2" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D38">
+    <cfRule type="duplicateValues" dxfId="1" priority="144"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2 H25:H47">
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B18 B2:C16">
-    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42:C42">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C14">
-    <cfRule type="duplicateValues" dxfId="5" priority="93"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D14">
-    <cfRule type="duplicateValues" dxfId="4" priority="97"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C31">
-    <cfRule type="duplicateValues" dxfId="3" priority="142"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31">
-    <cfRule type="duplicateValues" dxfId="2" priority="144"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:C41 B19:B31">
-    <cfRule type="duplicateValues" dxfId="1" priority="154"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C87">
-    <cfRule type="duplicateValues" dxfId="0" priority="157"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2023_D4TRII_daftar_mahasiswa.xlsx
+++ b/2023_D4TRII_daftar_mahasiswa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\My Python Project\match-googleclassroom-grade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86910400-15F9-4CEA-B979-86F867B7C9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D181B18D-EBD2-4CAC-BDE8-9017AF327286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="116">
   <si>
     <t>Nama</t>
   </si>
@@ -367,6 +367,18 @@
   </si>
   <si>
     <t>gemmasitohang@gmail.com</t>
+  </si>
+  <si>
+    <t>GEFIN S. HUTABARAT</t>
+  </si>
+  <si>
+    <t>gefinshtb@gmail.com</t>
+  </si>
+  <si>
+    <t>JEFRI</t>
+  </si>
+  <si>
+    <t>jefrikuliah@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -760,9 +772,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E998"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
       <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
@@ -821,7 +833,7 @@
     </row>
     <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A59" si="0">IF(C3=C4,A3,A3+1)</f>
+        <f t="shared" ref="A4:A61" si="0">IF(C3=C4,A3,A3+1)</f>
         <v>3</v>
       </c>
       <c r="B4">
@@ -960,13 +972,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2023240012</v>
+        <v>2023240011</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -975,13 +987,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2023240013</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
+        <v>2023240012</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -990,13 +1002,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2023240016</v>
+        <v>2023240013</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1005,43 +1017,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2023240017</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
+        <v>2023240015</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>2023240017</v>
+        <v>2023240016</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>2023240018</v>
+        <v>2023240017</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1050,10 +1062,13 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>2023240019</v>
+        <v>2023240017</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1062,13 +1077,13 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>2023240020</v>
+        <v>2023240018</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1077,13 +1092,10 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>2023240021</v>
+        <v>2023240019</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1092,13 +1104,13 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>2023240022</v>
+        <v>2023240020</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1107,13 +1119,13 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>2023240023</v>
+        <v>2023240021</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1122,13 +1134,13 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>2023240024</v>
+        <v>2023240022</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1137,13 +1149,13 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>2023240025</v>
+        <v>2023240023</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1152,10 +1164,13 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>2023240027</v>
+        <v>2023240024</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1164,13 +1179,13 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>2023240028</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>104</v>
+        <v>2023240025</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1179,13 +1194,10 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>2023240029</v>
+        <v>2023240027</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1194,13 +1206,13 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <v>2023240030</v>
+        <v>2023240028</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1209,13 +1221,13 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>2023240031</v>
+        <v>2023240029</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1224,13 +1236,13 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>2023240032</v>
-      </c>
-      <c r="C31" t="s">
-        <v>25</v>
+        <v>2023240030</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1239,13 +1251,13 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <v>2023240033</v>
+        <v>2023240031</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1254,13 +1266,13 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>2023240034</v>
+        <v>2023240032</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1269,13 +1281,13 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <v>2023240035</v>
+        <v>2023240033</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1284,13 +1296,13 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <v>2023240036</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>102</v>
+        <v>2023240034</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1299,13 +1311,13 @@
         <v>33</v>
       </c>
       <c r="B36">
-        <v>2023240038</v>
+        <v>2023240035</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1314,13 +1326,13 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <v>2023240039</v>
-      </c>
-      <c r="C37" t="s">
-        <v>30</v>
+        <v>2023240036</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1329,13 +1341,13 @@
         <v>35</v>
       </c>
       <c r="B38">
-        <v>2023240040</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>108</v>
+        <v>2023240038</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1344,10 +1356,13 @@
         <v>36</v>
       </c>
       <c r="B39">
-        <v>2023240041</v>
+        <v>2023240039</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="D39" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1356,13 +1371,13 @@
         <v>37</v>
       </c>
       <c r="B40">
-        <v>2023240042</v>
-      </c>
-      <c r="C40" t="s">
-        <v>32</v>
+        <v>2023240040</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1371,43 +1386,40 @@
         <v>38</v>
       </c>
       <c r="B41">
-        <v>2023240044</v>
+        <v>2023240041</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B42">
-        <v>2023240044</v>
+        <v>2023240042</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B43">
-        <v>2023240045</v>
+        <v>2023240044</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1416,13 +1428,13 @@
         <v>40</v>
       </c>
       <c r="B44">
-        <v>2023240046</v>
+        <v>2023240044</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1431,13 +1443,13 @@
         <v>41</v>
       </c>
       <c r="B45">
-        <v>2023240047</v>
+        <v>2023240045</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1446,13 +1458,13 @@
         <v>42</v>
       </c>
       <c r="B46">
-        <v>2023240048</v>
+        <v>2023240046</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1461,13 +1473,13 @@
         <v>43</v>
       </c>
       <c r="B47">
-        <v>2023240049</v>
+        <v>2023240047</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1476,43 +1488,43 @@
         <v>44</v>
       </c>
       <c r="B48">
-        <v>2023240050</v>
+        <v>2023240048</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49">
-        <v>2023240050</v>
+        <v>2023240049</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50">
-        <v>2023240051</v>
+        <v>2023240050</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="D50" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1521,13 +1533,13 @@
         <v>46</v>
       </c>
       <c r="B51">
-        <v>2023240052</v>
+        <v>2023240050</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1536,13 +1548,13 @@
         <v>47</v>
       </c>
       <c r="B52">
-        <v>2023240053</v>
+        <v>2023240051</v>
       </c>
       <c r="C52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1551,13 +1563,13 @@
         <v>48</v>
       </c>
       <c r="B53">
-        <v>2023240054</v>
+        <v>2023240052</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D53" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1566,13 +1578,13 @@
         <v>49</v>
       </c>
       <c r="B54">
-        <v>2023240055</v>
+        <v>2023240053</v>
       </c>
       <c r="C54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1581,13 +1593,13 @@
         <v>50</v>
       </c>
       <c r="B55">
-        <v>2023240057</v>
+        <v>2023240054</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D55" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1596,13 +1608,13 @@
         <v>51</v>
       </c>
       <c r="B56">
-        <v>2023240058</v>
+        <v>2023240055</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D56" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1611,13 +1623,13 @@
         <v>52</v>
       </c>
       <c r="B57">
-        <v>2023240059</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>94</v>
+        <v>2023240057</v>
+      </c>
+      <c r="C57" t="s">
+        <v>79</v>
       </c>
       <c r="D57" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1626,10 +1638,13 @@
         <v>53</v>
       </c>
       <c r="B58">
-        <v>2023240060</v>
+        <v>2023240058</v>
       </c>
       <c r="C58" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="D58" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1638,17 +1653,42 @@
         <v>54</v>
       </c>
       <c r="B59">
+        <v>2023240059</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B60">
+        <v>2023240060</v>
+      </c>
+      <c r="C60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B61">
         <v>2023240061</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C61" t="s">
         <v>82</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D61" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -1724,8 +1764,8 @@
     <row r="134" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="135" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="136" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="138" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="140" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="141" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="142" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -2585,42 +2625,44 @@
     <row r="996" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="997" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="998" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B20">
+  <conditionalFormatting sqref="B22">
     <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B21 B2:C19">
+  <conditionalFormatting sqref="B22:B23 B2:C21">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C17">
+  <conditionalFormatting sqref="B2:C19">
     <cfRule type="duplicateValues" dxfId="9" priority="93"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C94">
+  <conditionalFormatting sqref="B2:C96">
     <cfRule type="duplicateValues" dxfId="8" priority="157"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:C48 B22:B38">
+  <conditionalFormatting sqref="B41:C50 B24:B40">
     <cfRule type="duplicateValues" dxfId="7" priority="154"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49:C49">
+  <conditionalFormatting sqref="B51:C51">
     <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50:C157">
+  <conditionalFormatting sqref="B52:C159">
     <cfRule type="duplicateValues" dxfId="5" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
     <cfRule type="duplicateValues" dxfId="4" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C38">
+  <conditionalFormatting sqref="C2:C40">
     <cfRule type="duplicateValues" dxfId="3" priority="142"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D17">
+  <conditionalFormatting sqref="D2:D19">
     <cfRule type="duplicateValues" dxfId="2" priority="97"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D38">
+  <conditionalFormatting sqref="D2:D40">
     <cfRule type="duplicateValues" dxfId="1" priority="144"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2 H25:H47">
+  <conditionalFormatting sqref="H2 H27:H49">
     <cfRule type="cellIs" dxfId="0" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
